--- a/abreviated_model_iterations.xlsx
+++ b/abreviated_model_iterations.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jennifer.stipe\Class_Projects\Project_3\AI_Project_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE52A5FF-6BEB-4CB4-AE02-ED949550305B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF20FE2E-15C0-484A-9F68-E8C2A111821C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45972" yWindow="1452" windowWidth="23256" windowHeight="13896" xr2:uid="{B842DE08-42B1-4917-A607-B77F56DF4E13}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="LR, RF, XG" sheetId="1" r:id="rId1"/>
+    <sheet name="LSTM #1" sheetId="3" r:id="rId2"/>
+    <sheet name="LSTM #2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="95">
   <si>
     <t>Actual</t>
   </si>
@@ -52,30 +52,12 @@
     <t>% Diff</t>
   </si>
   <si>
-    <t>Predicted Diff</t>
-  </si>
-  <si>
-    <t>6 Year Linear Regression - MAE - 91.9 R2 - 85.3</t>
-  </si>
-  <si>
-    <t>6 Year Random Forest MAE-  105.6 R2 - .8937</t>
-  </si>
-  <si>
-    <t>6 Year Xboost ME - 198.48 R2 - .6729</t>
-  </si>
-  <si>
     <t>12-Week Predictions</t>
   </si>
   <si>
     <t>16-Week Predictions</t>
   </si>
   <si>
-    <t>6 Year LMST - 4 Week</t>
-  </si>
-  <si>
-    <t>6 Year LMST - 12 Week</t>
-  </si>
-  <si>
     <t>Max</t>
   </si>
   <si>
@@ -289,10 +271,58 @@
     <t>Avg</t>
   </si>
   <si>
-    <t>6 Year Linear Regression - MAE - 81.7 R2 - 90.6</t>
-  </si>
-  <si>
-    <t>6 Year Random Forest MAE-  150.1 R2 - .731</t>
+    <t>ITERATIONS</t>
+  </si>
+  <si>
+    <t>Weeks of prediction</t>
+  </si>
+  <si>
+    <t>Layers</t>
+  </si>
+  <si>
+    <t>Train RSME</t>
+  </si>
+  <si>
+    <t>Test RSME</t>
+  </si>
+  <si>
+    <t>Selected model - as slightly lower Test RSME compared to the best at 4 weeks was worth it to get 12 additionl weeks of prediction.</t>
+  </si>
+  <si>
+    <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>XG Boost</t>
+  </si>
+  <si>
+    <t>12-Week Predict</t>
+  </si>
+  <si>
+    <t>16-Week Prediction</t>
+  </si>
+  <si>
+    <t>R2 Scores</t>
+  </si>
+  <si>
+    <t>6 Year Xboost R2 - .731</t>
+  </si>
+  <si>
+    <t>6 Year Random Forest MAE-  R2 - .966</t>
+  </si>
+  <si>
+    <t>6 Year Linear Regression - R2 - 90.6</t>
+  </si>
+  <si>
+    <t>6 Year Random Forest MAE-  .8937</t>
+  </si>
+  <si>
+    <t>6 Year Linear Regression  - .853</t>
+  </si>
+  <si>
+    <t>6 Year Xboost ME  - .6729</t>
   </si>
 </sst>
 </file>
@@ -304,7 +334,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,16 +368,29 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -445,13 +488,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -486,8 +544,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -588,7 +660,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$21</c:f>
+              <c:f>'LR, RF, XG'!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -611,7 +683,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$22:$A$37</c:f>
+              <c:f>'LR, RF, XG'!$A$22:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="16"/>
@@ -678,7 +750,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$21</c:f>
+              <c:f>'LR, RF, XG'!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -701,7 +773,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$22:$B$37</c:f>
+              <c:f>'LR, RF, XG'!$B$22:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1042,7 +1114,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$21</c:f>
+              <c:f>'LR, RF, XG'!$F$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1065,7 +1137,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$22:$F$37</c:f>
+              <c:f>'LR, RF, XG'!$F$22:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1132,7 +1204,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$21</c:f>
+              <c:f>'LR, RF, XG'!$G$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1155,7 +1227,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$22:$G$37</c:f>
+              <c:f>'LR, RF, XG'!$G$22:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1433,455 +1505,6 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>LSTM #2 Results</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$C$268</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Actual</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$C$269:$C$284</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>7924</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7690</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7957</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7298</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7101</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7071</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6884</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7881</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7484</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7472</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7669</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7978</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7683</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7618</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7508</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7870</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DF1E-48E7-8993-187AC50AE462}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$D$268</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Predicted</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$D$269:$D$284</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>8242.91</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8236.5452427864002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8312.3333821296692</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8284.1900525093006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8280.0863175392096</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8284.2097954750006</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8330.3097138404792</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8299.1327862739508</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8188.1326947212201</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8229.74454545974</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8175.10783433914</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8237.9295582771301</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8120.2516789436304</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8069.1623082160904</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8017.76997804641</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8048.89493989944</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DF1E-48E7-8993-187AC50AE462}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="453340863"/>
-        <c:axId val="1106235856"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="453340863"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1106235856"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1106235856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="6500"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="453340863"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1937,7 +1560,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$D$13</c:f>
+              <c:f>'LSTM #1'!$D$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1960,7 +1583,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$D$14:$D$29</c:f>
+              <c:f>'LSTM #1'!$D$34:$D$49</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2027,7 +1650,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$E$13</c:f>
+              <c:f>'LSTM #1'!$E$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2050,7 +1673,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$E$14:$E$29</c:f>
+              <c:f>'LSTM #1'!$E$34:$E$49</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2305,6 +1928,455 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>LSTM #2 Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LSTM #2'!$C$267</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'LSTM #2'!$C$268:$C$283</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>7924</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7690</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7957</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7071</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6884</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7881</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7484</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7472</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7669</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7978</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7683</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7618</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7508</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7870</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF1E-48E7-8993-187AC50AE462}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LSTM #2'!$D$267</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predicted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'LSTM #2'!$D$268:$D$283</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>8242.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8236.5452427864002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8312.3333821296692</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8284.1900525093006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8280.0863175392096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8284.2097954750006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8330.3097138404792</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8299.1327862739508</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8188.1326947212201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8229.74454545974</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8175.10783433914</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8237.9295582771301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8120.2516789436304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8069.1623082160904</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8017.76997804641</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8048.89493989944</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DF1E-48E7-8993-187AC50AE462}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="453340863"/>
+        <c:axId val="1106235856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="453340863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1106235856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1106235856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="6500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453340863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4610,23 +4682,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>272</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>289</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{402E4F42-C889-9654-BCCD-BB1D027B9478}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25631980-98F2-C847-A6AD-618CFB8F4211}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4651,23 +4723,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25631980-98F2-C847-A6AD-618CFB8F4211}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{402E4F42-C889-9654-BCCD-BB1D027B9478}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5005,44 +5077,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BEC8A5-6976-449D-A1E3-5BB32824BE57}">
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:I20"/>
+      <selection activeCell="K41" sqref="K41:M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="21" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="F2" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="K2" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="P2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
+      <c r="A2" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="F2" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="K2" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -5081,21 +5156,6 @@
       <c r="N3" t="s">
         <v>3</v>
       </c>
-      <c r="P3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -5140,9 +5200,6 @@
         <f>(L4-K4)/K4</f>
         <v>1.0612589776087828E-2</v>
       </c>
-      <c r="P4">
-        <v>7101</v>
-      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -5187,9 +5244,6 @@
         <f t="shared" ref="N5:N15" si="5">(L5-K5)/K5</f>
         <v>2.3734973836798179E-2</v>
       </c>
-      <c r="P5">
-        <v>7071</v>
-      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -5234,9 +5288,6 @@
         <f t="shared" si="5"/>
         <v>2.5685647879139992E-2</v>
       </c>
-      <c r="P6">
-        <v>6884</v>
-      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -5281,9 +5332,6 @@
         <f t="shared" si="5"/>
         <v>2.0888212155817775E-2</v>
       </c>
-      <c r="P7">
-        <v>7881</v>
-      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -5328,9 +5376,6 @@
         <f t="shared" si="5"/>
         <v>-3.6396312132549485E-2</v>
       </c>
-      <c r="P8">
-        <v>7484</v>
-      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -5375,9 +5420,6 @@
         <f t="shared" si="5"/>
         <v>4.7222965738758081E-2</v>
       </c>
-      <c r="P9">
-        <v>7472</v>
-      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -5422,9 +5464,6 @@
         <f t="shared" si="5"/>
         <v>2.7368626939627112E-2</v>
       </c>
-      <c r="P10">
-        <v>7669</v>
-      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -5469,24 +5508,7 @@
         <f t="shared" si="5"/>
         <v>2.3053396841313623E-2</v>
       </c>
-      <c r="P11">
-        <v>7978</v>
-      </c>
-      <c r="Q11">
-        <v>-375.86215199999998</v>
-      </c>
-      <c r="R11">
-        <f>L10+Q11</f>
-        <v>7503.0278480000006</v>
-      </c>
-      <c r="S11">
-        <f>R11-P11</f>
-        <v>-474.97215199999937</v>
-      </c>
-      <c r="T11" s="1">
-        <f>(R11-P11)/P11</f>
-        <v>-5.9535240912509321E-2</v>
-      </c>
+      <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -5531,24 +5553,7 @@
         <f t="shared" si="5"/>
         <v>-4.344657035012367E-2</v>
       </c>
-      <c r="P12">
-        <v>7683</v>
-      </c>
-      <c r="Q12">
-        <v>-114.033356</v>
-      </c>
-      <c r="R12">
-        <f t="shared" ref="R12:R15" si="6">L11+Q12</f>
-        <v>8047.8866440000002</v>
-      </c>
-      <c r="S12">
-        <f t="shared" ref="S12:S15" si="7">R12-P12</f>
-        <v>364.88664400000016</v>
-      </c>
-      <c r="T12" s="1">
-        <f t="shared" ref="T12:T15" si="8">(R12-P12)/P12</f>
-        <v>4.7492729923207098E-2</v>
-      </c>
+      <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -5593,24 +5598,7 @@
         <f t="shared" si="5"/>
         <v>2.735626148595427E-2</v>
       </c>
-      <c r="P13">
-        <v>7618</v>
-      </c>
-      <c r="Q13">
-        <v>241.501678</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="6"/>
-        <v>7590.7016779999994</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="7"/>
-        <v>-27.298322000000553</v>
-      </c>
-      <c r="T13" s="1">
-        <f t="shared" si="8"/>
-        <v>-3.5833974796535251E-3</v>
-      </c>
+      <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -5655,24 +5643,7 @@
         <f t="shared" si="5"/>
         <v>7.0418220564730811E-3</v>
       </c>
-      <c r="P14">
-        <v>7508</v>
-      </c>
-      <c r="Q14">
-        <v>150.222961</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="6"/>
-        <v>7976.622961</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="7"/>
-        <v>468.62296100000003</v>
-      </c>
-      <c r="T14" s="1">
-        <f t="shared" si="8"/>
-        <v>6.2416483883857225E-2</v>
-      </c>
+      <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -5717,57 +5688,38 @@
         <f t="shared" si="5"/>
         <v>2.3257941550190592E-2</v>
       </c>
-      <c r="P15">
-        <v>7870</v>
-      </c>
-      <c r="Q15">
-        <v>-79.463684000000001</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="6"/>
-        <v>7481.4063159999996</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="7"/>
-        <v>-388.59368400000039</v>
-      </c>
-      <c r="T15" s="1">
-        <f t="shared" si="8"/>
-        <v>-4.9376579923761169E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T15" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="F20" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="K20" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="P20" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="F20" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="K20" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -5804,23 +5756,8 @@
       <c r="N21" t="s">
         <v>3</v>
       </c>
-      <c r="P21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" t="s">
-        <v>1</v>
-      </c>
-      <c r="S21" t="s">
-        <v>2</v>
-      </c>
-      <c r="T21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>7924</v>
       </c>
@@ -5828,11 +5765,11 @@
         <v>7817.59</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:C25" si="9">B22-A22</f>
+        <f t="shared" ref="C22:C25" si="6">B22-A22</f>
         <v>-106.40999999999985</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" ref="D22:D25" si="10">(B22-A22)/A22</f>
+        <f t="shared" ref="D22:D25" si="7">(B22-A22)/A22</f>
         <v>-1.3428823826350311E-2</v>
       </c>
       <c r="F22" s="2">
@@ -5842,21 +5779,18 @@
         <v>7892.93</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22:H25" si="11">G22-F22</f>
+        <f t="shared" ref="H22:H25" si="8">G22-F22</f>
         <v>-31.069999999999709</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" ref="I22:I25" si="12">(G22-F22)/F22</f>
+        <f t="shared" ref="I22:I25" si="9">(G22-F22)/F22</f>
         <v>-3.9209994952044058E-3</v>
       </c>
       <c r="K22" s="2">
         <v>7924</v>
       </c>
-      <c r="P22">
-        <v>7924</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>7690</v>
       </c>
@@ -5864,11 +5798,11 @@
         <v>7745.22</v>
       </c>
       <c r="C23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>55.220000000000255</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>7.1807542262679134E-3</v>
       </c>
       <c r="F23" s="2">
@@ -5878,21 +5812,18 @@
         <v>7620.51</v>
       </c>
       <c r="H23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-69.489999999999782</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>-9.0364109232769548E-3</v>
       </c>
       <c r="K23" s="2">
         <v>7690</v>
       </c>
-      <c r="P23">
-        <v>7690</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>7957</v>
       </c>
@@ -5900,11 +5831,11 @@
         <v>7852.73</v>
       </c>
       <c r="C24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-104.27000000000044</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1.3104184994344657E-2</v>
       </c>
       <c r="F24" s="2">
@@ -5914,21 +5845,18 @@
         <v>7942.29</v>
       </c>
       <c r="H24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-14.710000000000036</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>-1.8486866909639358E-3</v>
       </c>
       <c r="K24" s="2">
         <v>7957</v>
       </c>
-      <c r="P24">
-        <v>7957</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>7298</v>
       </c>
@@ -5936,11 +5864,11 @@
         <v>7180.52</v>
       </c>
       <c r="C25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-117.47999999999956</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1.6097560975609698E-2</v>
       </c>
       <c r="F25" s="2">
@@ -5950,21 +5878,18 @@
         <v>7233.56</v>
       </c>
       <c r="H25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-64.4399999999996</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>-8.8298163880514667E-3</v>
       </c>
       <c r="K25" s="2">
         <v>7298</v>
       </c>
-      <c r="P25">
-        <v>7298</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>7101</v>
       </c>
@@ -6007,11 +5932,8 @@
         <f>(L26-K26)/K26</f>
         <v>1.0612589776087828E-2</v>
       </c>
-      <c r="P26">
-        <v>7101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>7071</v>
       </c>
@@ -6019,11 +5941,11 @@
         <v>7082.79</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:C37" si="13">B27-A27</f>
+        <f t="shared" ref="C27:C37" si="10">B27-A27</f>
         <v>11.789999999999964</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" ref="D27:D37" si="14">(B27-A27)/A27</f>
+        <f t="shared" ref="D27:D37" si="11">(B27-A27)/A27</f>
         <v>1.6673737802290996E-3</v>
       </c>
       <c r="F27" s="2">
@@ -6033,11 +5955,11 @@
         <v>7040.7</v>
       </c>
       <c r="H27">
-        <f t="shared" ref="H27:H37" si="15">G27-F27</f>
+        <f t="shared" ref="H27:H37" si="12">G27-F27</f>
         <v>-30.300000000000182</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" ref="I27:I37" si="16">(G27-F27)/F27</f>
+        <f t="shared" ref="I27:I37" si="13">(G27-F27)/F27</f>
         <v>-4.2851081883750787E-3</v>
       </c>
       <c r="K27" s="2">
@@ -6047,18 +5969,15 @@
         <v>7238.83</v>
       </c>
       <c r="M27">
-        <f t="shared" ref="M27:M37" si="17">L27-K27</f>
+        <f t="shared" ref="M27:M37" si="14">L27-K27</f>
         <v>167.82999999999993</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" ref="N27:N37" si="18">(L27-K27)/K27</f>
+        <f t="shared" ref="N27:N37" si="15">(L27-K27)/K27</f>
         <v>2.3734973836798179E-2</v>
       </c>
-      <c r="P27">
-        <v>7071</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>6884</v>
       </c>
@@ -6066,11 +5985,11 @@
         <v>6838.22</v>
       </c>
       <c r="C28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-45.779999999999745</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-6.6502033701336064E-3</v>
       </c>
       <c r="F28" s="2">
@@ -6080,11 +5999,11 @@
         <v>6837.02</v>
       </c>
       <c r="H28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-46.979999999999563</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>-6.8245206275420632E-3</v>
       </c>
       <c r="K28" s="2">
@@ -6094,18 +6013,15 @@
         <v>7060.82</v>
       </c>
       <c r="M28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>176.81999999999971</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>2.5685647879139992E-2</v>
       </c>
-      <c r="P28">
-        <v>6884</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>7881</v>
       </c>
@@ -6113,11 +6029,11 @@
         <v>7772.07</v>
       </c>
       <c r="C29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-108.93000000000029</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-1.3821850019033155E-2</v>
       </c>
       <c r="F29" s="2">
@@ -6127,11 +6043,11 @@
         <v>7823.2</v>
       </c>
       <c r="H29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-57.800000000000182</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>-7.3340946580383428E-3</v>
       </c>
       <c r="K29" s="2">
@@ -6141,18 +6057,15 @@
         <v>8045.62</v>
       </c>
       <c r="M29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>164.61999999999989</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>2.0888212155817775E-2</v>
       </c>
-      <c r="P29">
-        <v>7881</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>7484</v>
       </c>
@@ -6160,11 +6073,11 @@
         <v>7236.21</v>
       </c>
       <c r="C30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-247.78999999999996</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-3.3109299839657935E-2</v>
       </c>
       <c r="F30" s="2">
@@ -6174,11 +6087,11 @@
         <v>7408.82</v>
       </c>
       <c r="H30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-75.180000000000291</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>-1.0045430251202605E-2</v>
       </c>
       <c r="K30" s="2">
@@ -6188,18 +6101,15 @@
         <v>7211.61</v>
       </c>
       <c r="M30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>-272.39000000000033</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>-3.6396312132549485E-2</v>
       </c>
-      <c r="P30">
-        <v>7484</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>7472</v>
       </c>
@@ -6207,11 +6117,11 @@
         <v>7391.22</v>
       </c>
       <c r="C31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-80.779999999999745</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-1.0811027837259067E-2</v>
       </c>
       <c r="F31" s="2">
@@ -6221,11 +6131,11 @@
         <v>7453.07</v>
       </c>
       <c r="H31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-18.930000000000291</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>-2.5334582441113879E-3</v>
       </c>
       <c r="K31" s="2">
@@ -6235,18 +6145,15 @@
         <v>7824.85</v>
       </c>
       <c r="M31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>352.85000000000036</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>4.7222965738758081E-2</v>
       </c>
-      <c r="P31">
-        <v>7472</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>7669</v>
       </c>
@@ -6254,11 +6161,11 @@
         <v>7687.6</v>
       </c>
       <c r="C32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>18.600000000000364</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>2.4253488068849086E-3</v>
       </c>
       <c r="F32" s="2">
@@ -6268,11 +6175,11 @@
         <v>7660.93</v>
       </c>
       <c r="H32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-8.069999999999709</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>-1.0522884339548453E-3</v>
       </c>
       <c r="K32" s="2">
@@ -6282,15 +6189,12 @@
         <v>7878.89</v>
       </c>
       <c r="M32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>209.89000000000033</v>
       </c>
       <c r="N32" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>2.7368626939627112E-2</v>
-      </c>
-      <c r="P32">
-        <v>7669</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
@@ -6301,11 +6205,11 @@
         <v>7961.23</v>
       </c>
       <c r="C33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-16.770000000000437</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-2.102030584106347E-3</v>
       </c>
       <c r="F33" s="2">
@@ -6315,11 +6219,11 @@
         <v>7937.14</v>
       </c>
       <c r="H33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-40.859999999999673</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>-5.1215843569816588E-3</v>
       </c>
       <c r="K33" s="2">
@@ -6329,31 +6233,14 @@
         <v>8161.92</v>
       </c>
       <c r="M33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>183.92000000000007</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>2.3053396841313623E-2</v>
       </c>
-      <c r="P33">
-        <v>7978</v>
-      </c>
-      <c r="Q33">
-        <v>-375.86215199999998</v>
-      </c>
-      <c r="R33">
-        <f>L32+Q33</f>
-        <v>7503.0278480000006</v>
-      </c>
-      <c r="S33">
-        <f>R33-P33</f>
-        <v>-474.97215199999937</v>
-      </c>
-      <c r="T33" s="1">
-        <f>(R33-P33)/P33</f>
-        <v>-5.9535240912509321E-2</v>
-      </c>
+      <c r="T33" s="1"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
@@ -6363,11 +6250,11 @@
         <v>7593.42</v>
       </c>
       <c r="C34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-89.579999999999927</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-1.1659508004685661E-2</v>
       </c>
       <c r="F34" s="2">
@@ -6377,11 +6264,11 @@
         <v>7655.35</v>
       </c>
       <c r="H34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-27.649999999999636</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>-3.5988546140829931E-3</v>
       </c>
       <c r="K34" s="2">
@@ -6391,31 +6278,14 @@
         <v>7349.2</v>
       </c>
       <c r="M34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>-333.80000000000018</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>-4.344657035012367E-2</v>
       </c>
-      <c r="P34">
-        <v>7683</v>
-      </c>
-      <c r="Q34">
-        <v>-114.033356</v>
-      </c>
-      <c r="R34">
-        <f t="shared" ref="R34:R37" si="19">L33+Q34</f>
-        <v>8047.8866440000002</v>
-      </c>
-      <c r="S34">
-        <f t="shared" ref="S34:S37" si="20">R34-P34</f>
-        <v>364.88664400000016</v>
-      </c>
-      <c r="T34" s="1">
-        <f t="shared" ref="T34:T37" si="21">(R34-P34)/P34</f>
-        <v>4.7492729923207098E-2</v>
-      </c>
+      <c r="T34" s="1"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
@@ -6425,11 +6295,11 @@
         <v>7486.63</v>
       </c>
       <c r="C35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-131.36999999999989</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-1.7244683644001037E-2</v>
       </c>
       <c r="F35" s="2">
@@ -6439,11 +6309,11 @@
         <v>7579.86</v>
       </c>
       <c r="H35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-38.140000000000327</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>-5.0065634024678823E-3</v>
       </c>
       <c r="K35" s="2">
@@ -6453,31 +6323,14 @@
         <v>7826.4</v>
       </c>
       <c r="M35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>208.39999999999964</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>2.735626148595427E-2</v>
       </c>
-      <c r="P35">
-        <v>7618</v>
-      </c>
-      <c r="Q35">
-        <v>241.501678</v>
-      </c>
-      <c r="R35">
-        <f t="shared" si="19"/>
-        <v>7590.7016779999994</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="20"/>
-        <v>-27.298322000000553</v>
-      </c>
-      <c r="T35" s="1">
-        <f t="shared" si="21"/>
-        <v>-3.5833974796535251E-3</v>
-      </c>
+      <c r="T35" s="1"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
@@ -6487,11 +6340,11 @@
         <v>7507.94</v>
       </c>
       <c r="C36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-6.0000000000400178E-2</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-7.9914757592434977E-6</v>
       </c>
       <c r="F36" s="2">
@@ -6501,11 +6354,11 @@
         <v>7479.38</v>
       </c>
       <c r="H36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-28.619999999999891</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>-3.8119339371337096E-3</v>
       </c>
       <c r="K36" s="2">
@@ -6515,31 +6368,14 @@
         <v>7560.87</v>
       </c>
       <c r="M36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>52.869999999999891</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>7.0418220564730811E-3</v>
       </c>
-      <c r="P36">
-        <v>7508</v>
-      </c>
-      <c r="Q36">
-        <v>150.222961</v>
-      </c>
-      <c r="R36">
-        <f t="shared" si="19"/>
-        <v>7976.622961</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="20"/>
-        <v>468.62296100000003</v>
-      </c>
-      <c r="T36" s="1">
-        <f t="shared" si="21"/>
-        <v>6.2416483883857225E-2</v>
-      </c>
+      <c r="T36" s="1"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
@@ -6549,11 +6385,11 @@
         <v>7857.82</v>
       </c>
       <c r="C37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-12.180000000000291</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-1.5476493011436201E-3</v>
       </c>
       <c r="F37" s="2">
@@ -6563,11 +6399,11 @@
         <v>7836.89</v>
       </c>
       <c r="H37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-33.109999999999673</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>-4.2071156289707331E-3</v>
       </c>
       <c r="K37" s="2">
@@ -6577,31 +6413,14 @@
         <v>8053.04</v>
       </c>
       <c r="M37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>183.03999999999996</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>2.3257941550190592E-2</v>
       </c>
-      <c r="P37">
-        <v>7870</v>
-      </c>
-      <c r="Q37">
-        <v>-79.463684000000001</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="19"/>
-        <v>7481.4063159999996</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="20"/>
-        <v>-388.59368400000039</v>
-      </c>
-      <c r="T37" s="1">
-        <f t="shared" si="21"/>
-        <v>-4.9376579923761169E-2</v>
-      </c>
+      <c r="T37" s="1"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C38">
@@ -6642,48 +6461,93 @@
     <row r="40" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B41" s="8">
         <v>-8.9999999999999993E-3</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H41" s="8">
         <v>-6.0000000000000001E-3</v>
       </c>
+      <c r="K41" s="21"/>
+      <c r="L41" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="M41" s="26"/>
+      <c r="N41" s="25"/>
     </row>
     <row r="42" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B42" s="9">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H42" s="9">
         <v>-1E-3</v>
       </c>
+      <c r="K42" s="21"/>
+      <c r="L42" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="M42" s="23" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="43" spans="1:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B43" s="10">
         <v>-3.3000000000000002E-2</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H43" s="10">
         <v>-1.2999999999999999E-2</v>
       </c>
+      <c r="K43" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="L43" s="21">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="M43" s="21">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="K44" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="L44" s="21">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="M44" s="21">
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="K45" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="L45" s="21">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="M45" s="21">
+        <v>0.73</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="L41:M41"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="K2:N2"/>
@@ -6699,11 +6563,781 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337E289F-EDED-4603-B618-AEB4A9AAD7DA}">
+  <dimension ref="A1:V55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
+        <v>4</v>
+      </c>
+      <c r="B4" s="21">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21">
+        <v>349</v>
+      </c>
+      <c r="D4" s="21">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
+        <v>12</v>
+      </c>
+      <c r="B5" s="21">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21">
+        <v>244</v>
+      </c>
+      <c r="D5" s="21">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
+        <v>12</v>
+      </c>
+      <c r="B6" s="21">
+        <v>2</v>
+      </c>
+      <c r="C6" s="21">
+        <v>140</v>
+      </c>
+      <c r="D6" s="21">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
+        <v>4</v>
+      </c>
+      <c r="B7" s="21">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21">
+        <v>269</v>
+      </c>
+      <c r="D7" s="21">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
+        <v>4</v>
+      </c>
+      <c r="B8" s="21">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21">
+        <v>251</v>
+      </c>
+      <c r="D8" s="21">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
+        <v>16</v>
+      </c>
+      <c r="B9" s="21">
+        <v>2</v>
+      </c>
+      <c r="C9" s="21">
+        <v>119</v>
+      </c>
+      <c r="D9" s="21">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
+        <v>16</v>
+      </c>
+      <c r="B10" s="22">
+        <v>1</v>
+      </c>
+      <c r="C10" s="22">
+        <v>242</v>
+      </c>
+      <c r="D10" s="22">
+        <v>655</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
+        <v>24</v>
+      </c>
+      <c r="B11" s="21">
+        <v>1</v>
+      </c>
+      <c r="C11" s="21">
+        <v>264</v>
+      </c>
+      <c r="D11" s="21">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24" t="s">
+        <v>25</v>
+      </c>
+      <c r="S24" t="s">
+        <v>26</v>
+      </c>
+      <c r="T24" t="s">
+        <v>27</v>
+      </c>
+      <c r="U24" t="s">
+        <v>28</v>
+      </c>
+      <c r="V24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
+        <v>-402.82678099999998</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="14">
+        <v>-14.997400000000001</v>
+      </c>
+      <c r="C32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="D32" s="3">
+        <v>7858</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="3"/>
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="14">
+        <v>-94.129000000000005</v>
+      </c>
+      <c r="C34" s="3">
+        <v>66</v>
+      </c>
+      <c r="D34" s="16">
+        <v>7924</v>
+      </c>
+      <c r="E34" s="3">
+        <f>D32+B34</f>
+        <v>7763.8710000000001</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34:F49" si="0">E34-D34</f>
+        <v>-160.12899999999991</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" ref="G34:G49" si="1">(E34-D34)/D34</f>
+        <v>-2.0208101968702662E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="14">
+        <v>-473.72083099999998</v>
+      </c>
+      <c r="B35" s="14">
+        <v>-473.72</v>
+      </c>
+      <c r="C35" s="3">
+        <v>-234</v>
+      </c>
+      <c r="D35" s="16">
+        <v>7690</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" ref="E35:E49" si="2">D34+B35</f>
+        <v>7450.28</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>-239.72000000000025</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="1"/>
+        <v>-3.1172951885565701E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="14">
+        <v>154.22200000000001</v>
+      </c>
+      <c r="C36" s="3">
+        <v>267</v>
+      </c>
+      <c r="D36" s="16">
+        <v>7957</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="2"/>
+        <v>7844.2219999999998</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>-112.77800000000025</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.4173432198064629E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="14">
+        <v>-511.53955100000002</v>
+      </c>
+      <c r="B37" s="14">
+        <v>-511.54</v>
+      </c>
+      <c r="C37" s="3">
+        <v>-659</v>
+      </c>
+      <c r="D37" s="16">
+        <v>7298</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="2"/>
+        <v>7445.46</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>147.46000000000004</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0205535763222805E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="14">
+        <v>507.49299999999999</v>
+      </c>
+      <c r="C38" s="3">
+        <v>-197</v>
+      </c>
+      <c r="D38" s="16">
+        <v>7101</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" si="2"/>
+        <v>7805.4930000000004</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>704.49300000000039</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="1"/>
+        <v>9.921039290240817E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="14">
+        <v>718.18119999999999</v>
+      </c>
+      <c r="C39" s="3">
+        <v>-30</v>
+      </c>
+      <c r="D39" s="16">
+        <v>7071</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="2"/>
+        <v>7819.1812</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>748.18119999999999</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="1"/>
+        <v>0.10580981473624664</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="14">
+        <v>5.5316296100000004</v>
+      </c>
+      <c r="B40" s="14">
+        <v>5.53</v>
+      </c>
+      <c r="C40" s="3">
+        <v>-187</v>
+      </c>
+      <c r="D40" s="16">
+        <v>6884</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="2"/>
+        <v>7076.53</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>192.52999999999975</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7967751307379395E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="14">
+        <v>273.48</v>
+      </c>
+      <c r="C41" s="3">
+        <v>997</v>
+      </c>
+      <c r="D41" s="16">
+        <v>7881</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="2"/>
+        <v>7157.48</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>-723.52000000000044</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="1"/>
+        <v>-9.1805608425326785E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="14">
+        <v>35.04</v>
+      </c>
+      <c r="C42" s="3">
+        <v>-397</v>
+      </c>
+      <c r="D42" s="16">
+        <v>7484</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="2"/>
+        <v>7916.04</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>432.03999999999996</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="1"/>
+        <v>5.7728487439871724E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="14">
+        <v>-175.928381</v>
+      </c>
+      <c r="B43" s="14">
+        <v>-175.93</v>
+      </c>
+      <c r="C43" s="3">
+        <v>-12</v>
+      </c>
+      <c r="D43" s="16">
+        <v>7472</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="2"/>
+        <v>7308.07</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>-163.93000000000029</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.1939239828693828E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="14">
+        <v>-426.05743100000001</v>
+      </c>
+      <c r="B44" s="14">
+        <v>-426.06</v>
+      </c>
+      <c r="C44" s="3">
+        <v>197</v>
+      </c>
+      <c r="D44" s="16">
+        <v>7669</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="2"/>
+        <v>7045.94</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>-623.0600000000004</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="1"/>
+        <v>-8.1243969226757126E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="14">
+        <v>-112.62002099999999</v>
+      </c>
+      <c r="B45" s="14">
+        <v>-112.62</v>
+      </c>
+      <c r="C45" s="3">
+        <v>309</v>
+      </c>
+      <c r="D45" s="16">
+        <v>7978</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="2"/>
+        <v>7556.38</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>-421.61999999999989</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="1"/>
+        <v>-5.2847831536725981E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="14">
+        <v>-376.60785099999998</v>
+      </c>
+      <c r="B46" s="14">
+        <v>-376.61</v>
+      </c>
+      <c r="C46" s="3">
+        <v>-295</v>
+      </c>
+      <c r="D46" s="16">
+        <v>7683</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="2"/>
+        <v>7601.39</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>-81.609999999999673</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.0622152804893878E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="14">
+        <v>-460.78687100000002</v>
+      </c>
+      <c r="B47" s="14">
+        <v>-460.79</v>
+      </c>
+      <c r="C47" s="3">
+        <v>-65</v>
+      </c>
+      <c r="D47" s="16">
+        <v>7618</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" si="2"/>
+        <v>7222.21</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>-395.78999999999996</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="1"/>
+        <v>-5.1954581254922548E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="14">
+        <v>-353.90735100000001</v>
+      </c>
+      <c r="B48" s="14">
+        <v>-353.91</v>
+      </c>
+      <c r="C48" s="3">
+        <v>-110</v>
+      </c>
+      <c r="D48" s="16">
+        <v>7508</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" si="2"/>
+        <v>7264.09</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>-243.90999999999985</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="1"/>
+        <v>-3.2486680873734665E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="14">
+        <v>413.49099999999999</v>
+      </c>
+      <c r="C49" s="3">
+        <v>362</v>
+      </c>
+      <c r="D49" s="16">
+        <v>7870</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" si="2"/>
+        <v>7921.491</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>51.490999999999985</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="1"/>
+        <v>6.5426937738246489E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="F50">
+        <f>SUM(F34:F49)</f>
+        <v>-889.8718000000008</v>
+      </c>
+      <c r="G50" s="7">
+        <f>MAX(G34:G49)</f>
+        <v>0.10580981473624664</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G51" s="7">
+        <f>MIN(G34:G50)</f>
+        <v>-9.1805608425326785E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="F53" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G53" s="8">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="F54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="9">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F55" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="10">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2312B1A-988B-4191-A414-956B2E0425AC}">
-  <dimension ref="A2:Q290"/>
+  <dimension ref="A1:Q289"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="E285" sqref="E285"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A1:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6713,2470 +7347,1834 @@
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="11"/>
+    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>7924</v>
       </c>
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>7924</v>
+        <v>7690</v>
       </c>
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>7690</v>
+        <v>7957</v>
       </c>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>7957</v>
+        <v>7298</v>
       </c>
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>7298</v>
+        <v>7101</v>
       </c>
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>7101</v>
+        <v>7071</v>
       </c>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>7071</v>
+        <v>6884</v>
       </c>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>6884</v>
+        <v>7881</v>
       </c>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>7881</v>
+        <v>7484</v>
       </c>
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>7484</v>
+        <v>7472</v>
       </c>
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>7472</v>
+        <v>7669</v>
       </c>
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>7669</v>
+        <v>7978</v>
       </c>
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>7978</v>
+        <v>7683</v>
       </c>
       <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>7683</v>
+        <v>7618</v>
       </c>
       <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>7618</v>
+        <v>7508</v>
       </c>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>7508</v>
-      </c>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
         <v>7870</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>8239.6725711822492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>8239.6725711822492</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8298.2266292572003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>8298.2266292572003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8263.1975383758509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>8263.1975383758509</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8267.7597374916004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>8267.7597374916004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8273.4177432060205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>8273.4177432060205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8313.4197115898096</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>8313.4197115898096</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8289.0631003379804</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>8289.0631003379804</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8180.1890769004804</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>8180.1890769004804</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8221.1967406272797</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>8221.1967406272797</v>
+        <v>8174.5187849998401</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>8174.5187849998401</v>
+        <v>8225.2149710655194</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>8225.2149710655194</v>
+        <v>8102.9273428916904</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>8102.9273428916904</v>
+        <v>8069.9721159934998</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>8069.9721159934998</v>
+        <v>8015.9108977317801</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>8015.9108977317801</v>
+      <c r="A37" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>54</v>
+      <c r="A39">
+        <v>8084.5418643951398</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>8084.5418643951398</v>
+        <v>8115.7300910949698</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>8115.7300910949698</v>
+        <v>8148.0036163329996</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>8148.0036163329996</v>
+        <v>8141.4265666007996</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>8141.4265666007996</v>
+        <v>8138.0163836479096</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>8138.0163836479096</v>
+        <v>8065.2561755180304</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>8065.2561755180304</v>
+        <v>8039.4991946220398</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>8039.4991946220398</v>
+        <v>8041.1042072772898</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>8041.1042072772898</v>
+        <v>8007.7921650409698</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>8007.7921650409698</v>
+        <v>7986.5442440509796</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>7986.5442440509796</v>
+        <v>7902.88292050361</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>7902.88292050361</v>
+        <v>7943.6925899982398</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>7943.6925899982398</v>
+        <v>7888.19393658638</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>7888.19393658638</v>
+        <v>7858.8413708209901</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>7858.8413708209901</v>
+      <c r="A53" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>56</v>
+      <c r="A55">
+        <v>7998.4537963867097</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>7998.4537963867097</v>
+        <v>8069.0990142822202</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>8069.0990142822202</v>
+        <v>8162.81886291503</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>8162.81886291503</v>
+        <v>8141.5109157562201</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>8141.5109157562201</v>
+        <v>8140.5678101181902</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>8140.5678101181902</v>
+        <v>8140.3006232380803</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>8140.3006232380803</v>
+        <v>8063.9140036702101</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>8063.9140036702101</v>
+        <v>7911.6209891438402</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>7911.6209891438402</v>
+        <v>7962.2132475972103</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>7962.2132475972103</v>
+        <v>7934.3622706532396</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>7934.3622706532396</v>
+        <v>8004.5222743153499</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>8004.5222743153499</v>
+        <v>7928.2029765248299</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>7928.2029765248299</v>
+        <v>7877.7925456166204</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>7877.7925456166204</v>
+        <v>7793.9570277333196</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>7793.9570277333196</v>
+      <c r="A69" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>58</v>
+      <c r="A71">
+        <v>8660.6994323730396</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>8660.6994323730396</v>
+        <v>8417.3497467040997</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>8417.3497467040997</v>
+        <v>9720.0736236572193</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>9720.0736236572193</v>
+        <v>9646.1992797851508</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>9646.1992797851508</v>
+        <v>9748.3842391967701</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>9748.3842391967701</v>
+        <v>9054.2588729858398</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>9054.2588729858398</v>
+        <v>8704.7708969116193</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>8704.7708969116193</v>
+        <v>8425.2594833374005</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>8425.2594833374005</v>
+        <v>8294.1178817749005</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>8294.1178817749005</v>
+        <v>8674.5445175170898</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>8674.5445175170898</v>
+        <v>8383.7128219604492</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>8383.7128219604492</v>
+        <v>8945.3201828002893</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>8945.3201828002893</v>
+        <v>8958.8164386749195</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>8958.8164386749195</v>
+        <v>8641.3074665069507</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>8641.3074665069507</v>
+      <c r="A85" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>60</v>
+      <c r="A87">
+        <v>7712.1007976531901</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>7712.1007976531901</v>
+        <v>7750.5521869659397</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>7750.5521869659397</v>
+        <v>7787.2200946807798</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>7787.2200946807798</v>
+        <v>7774.5745315551703</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>7774.5745315551703</v>
+        <v>7764.3865919113096</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>7764.3865919113096</v>
+        <v>7692.0243940353303</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>7692.0243940353303</v>
+        <v>7659.9278974532999</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>7659.9278974532999</v>
+        <v>7666.24015855789</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>7666.24015855789</v>
+        <v>7631.9109997749301</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>7631.9109997749301</v>
+        <v>7605.4117417335501</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>7605.4117417335501</v>
+        <v>7524.8505921363803</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>7524.8505921363803</v>
+        <v>7574.6429467201197</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>7574.6429467201197</v>
+        <v>7511.4325013160696</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>7511.4325013160696</v>
+        <v>7482.8548169136002</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>7482.8548169136002</v>
+      <c r="A101" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>62</v>
+      <c r="A103">
+        <v>7995.0214729309</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>7995.0214729309</v>
+        <v>7988.0371303558304</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>7988.0371303558304</v>
+        <v>7952.5248622894196</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>7952.5248622894196</v>
+        <v>7984.5052185058503</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>7984.5052185058503</v>
+        <v>8013.44969940185</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>8013.44969940185</v>
+        <v>7988.1880340576099</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>7988.1880340576099</v>
+        <v>8000.6906585693296</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>8000.6906585693296</v>
+        <v>7958.5366859435999</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>7958.5366859435999</v>
+        <v>7945.6979722976603</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>7945.6979722976603</v>
+        <v>7935.6022300720197</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>7935.6022300720197</v>
+        <v>7878.1464233398401</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>7878.1464233398401</v>
+        <v>7814.3598098754801</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>7814.3598098754801</v>
+        <v>7810.1152725219699</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>7810.1152725219699</v>
+        <v>7771.8923950195303</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>7771.8923950195303</v>
+      <c r="A117" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>64</v>
+      <c r="A119">
+        <v>7368.1585140228199</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>7368.1585140228199</v>
+        <v>7429.0897312164298</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>7429.0897312164298</v>
+        <v>7399.3198699951099</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>7399.3198699951099</v>
+        <v>7401.9927642345401</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>7401.9927642345401</v>
+        <v>7406.6599471568998</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>7406.6599471568998</v>
+        <v>7446.4686210155396</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>7446.4686210155396</v>
+        <v>7419.0238349437705</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>7419.0238349437705</v>
+        <v>7307.0583045482599</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>7307.0583045482599</v>
+        <v>7349.6969153881</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>7349.6969153881</v>
+        <v>7302.7632911205201</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>7302.7632911205201</v>
+        <v>7356.7378776073401</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>7356.7378776073401</v>
+        <v>7235.3244330882999</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>7235.3244330882999</v>
+        <v>7200.6742751598304</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>7200.6742751598304</v>
+        <v>7145.16374659538</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133">
-        <v>7145.16374659538</v>
+      <c r="A133" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>66</v>
+      <c r="A135">
+        <v>7165.4881258010801</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>7165.4881258010801</v>
+        <v>7222.3605928421002</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>7222.3605928421002</v>
+        <v>7184.1334695816004</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>7184.1334695816004</v>
+        <v>7189.9481596946698</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>7189.9481596946698</v>
+        <v>7196.2983741760199</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>7196.2983741760199</v>
+        <v>7236.2285842895499</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>7236.2285842895499</v>
+        <v>7213.8721885681098</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>7213.8721885681098</v>
+        <v>7107.0531044006302</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>7107.0531044006302</v>
+        <v>7146.9085845947202</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>7146.9085845947202</v>
+        <v>7100.51515960693</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>7100.51515960693</v>
+        <v>7148.8959617614701</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>7148.8959617614701</v>
+        <v>7026.2139701843198</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>7026.2139701843198</v>
+        <v>6994.4098739623996</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>6994.4098739623996</v>
+        <v>6941.2628517150797</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <v>6941.2628517150797</v>
+      <c r="A149" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>68</v>
+      <c r="A151">
+        <v>7057.9696235656702</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>7057.9696235656702</v>
+        <v>7114.4532470703098</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>7114.4532470703098</v>
+        <v>7160.0114059448197</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>7160.0114059448197</v>
+        <v>7123.7816658020001</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>7123.7816658020001</v>
+        <v>7078.0112609863199</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>7078.0112609863199</v>
+        <v>7021.63331604003</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>7021.63331604003</v>
+        <v>6960.8921279907199</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>6960.8921279907199</v>
+        <v>6995.5309600829996</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>6995.5309600829996</v>
+        <v>6949.2916793823197</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>6949.2916793823197</v>
+        <v>6894.2937850952103</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>6894.2937850952103</v>
+        <v>6833.2933273315402</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>6833.2933273315402</v>
+        <v>6914.0339965820303</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>6914.0339965820303</v>
+        <v>6823.89698791503</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>6823.89698791503</v>
+        <v>6795.4002494812003</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165">
-        <v>6795.4002494812003</v>
+      <c r="A165" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>70</v>
+      <c r="A167">
+        <v>6909.67358970642</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>6909.67358970642</v>
+        <v>6942.44360542297</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>6942.44360542297</v>
+        <v>6975.7176685333197</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>6975.7176685333197</v>
+        <v>6967.8447279930097</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>6967.8447279930097</v>
+        <v>6963.0293760299601</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>6963.0293760299601</v>
+        <v>6890.2637510299601</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>6890.2637510299601</v>
+        <v>6863.1683912277203</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>6863.1683912277203</v>
+        <v>6865.75031208992</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>6865.75031208992</v>
+        <v>6832.2402489185297</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>6832.2402489185297</v>
+        <v>6809.9178726673099</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>6809.9178726673099</v>
+        <v>6726.8578140735599</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>6726.8578140735599</v>
+        <v>6769.6350929737</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>6769.6350929737</v>
+        <v>6712.4773247241901</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>6712.4773247241901</v>
+        <v>6683.3028442859604</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181">
-        <v>6683.3028442859604</v>
+      <c r="A181" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>72</v>
+      <c r="A183">
+        <v>7919.0648002624503</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>7919.0648002624503</v>
+        <v>7916.4219174384998</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>7916.4219174384998</v>
+        <v>7872.2701764106696</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>7872.2701764106696</v>
+        <v>7904.2332844734101</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>7904.2332844734101</v>
+        <v>7932.2628006935101</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>7932.2628006935101</v>
+        <v>7918.15278673172</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>7918.15278673172</v>
+        <v>7930.5948586463901</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>7930.5948586463901</v>
+        <v>7881.4116578102103</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>7881.4116578102103</v>
+        <v>7874.5984182357697</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>7874.5984182357697</v>
+        <v>7860.1786584854099</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>7860.1786584854099</v>
+        <v>7814.75379276275</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>7814.75379276275</v>
+        <v>7737.8985376357996</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>7737.8985376357996</v>
+        <v>7733.8334760665803</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>7733.8334760665803</v>
+        <v>7694.6684522628702</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197">
-        <v>7694.6684522628702</v>
+      <c r="A197" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>74</v>
+      <c r="A199">
+        <v>7553.4409990310596</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>7553.4409990310596</v>
+        <v>7613.9113054275504</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>7613.9113054275504</v>
+        <v>7583.0446519851603</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>7583.0446519851603</v>
+        <v>7586.0962419509797</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>7586.0962419509797</v>
+        <v>7590.9567914009003</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>7590.9567914009003</v>
+        <v>7630.8335041999799</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>7630.8335041999799</v>
+        <v>7604.0147118568402</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>7604.0147118568402</v>
+        <v>7492.6682915687497</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>7492.6682915687497</v>
+        <v>7534.9903435707001</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>7534.9903435707001</v>
+        <v>7488.09100198745</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>7488.09100198745</v>
+        <v>7541.4291329383796</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>7541.4291329383796</v>
+        <v>7419.8134407997104</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>7419.8134407997104</v>
+        <v>7385.4988923072797</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>7385.4988923072797</v>
+        <v>7330.28584909439</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213">
-        <v>7330.28584909439</v>
+      <c r="A213" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>76</v>
+      <c r="A215">
+        <v>7510.00657463073</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>7510.00657463073</v>
+        <v>7504.9690670967102</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>7504.9690670967102</v>
+        <v>7464.8794598579398</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>7464.8794598579398</v>
+        <v>7497.0161175727799</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>7497.0161175727799</v>
+        <v>7525.6250615119898</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>7525.6250615119898</v>
+        <v>7506.0452256202698</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>7506.0452256202698</v>
+        <v>7518.6909565925598</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>7518.6909565925598</v>
+        <v>7472.9818234443601</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>7472.9818234443601</v>
+        <v>7463.1437907218897</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>7463.1437907218897</v>
+        <v>7450.95198965072</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>7450.95198965072</v>
+        <v>7399.4747099876404</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>7399.4747099876404</v>
+        <v>7328.8663420677103</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>7328.8663420677103</v>
+        <v>7324.9233698844901</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>7324.9233698844901</v>
+        <v>7286.2196192741303</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229">
-        <v>7286.2196192741303</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
-        <v>77</v>
+      <c r="A229" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>72</v>
+      </c>
+      <c r="B231" s="11">
+        <f t="shared" ref="B231:B244" si="0">B232-7</f>
+        <v>45389</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
-        <v>78</v>
+      <c r="A232">
+        <v>7707.0214729309</v>
       </c>
       <c r="B232" s="11">
-        <f t="shared" ref="B232:B245" si="0">B233-7</f>
-        <v>45389</v>
+        <f t="shared" si="0"/>
+        <v>45396</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>7707.0214729309</v>
+        <v>7700.0371303558304</v>
       </c>
       <c r="B233" s="11">
         <f t="shared" si="0"/>
-        <v>45396</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>7700.0371303558304</v>
+        <v>7664.5248622894196</v>
       </c>
       <c r="B234" s="11">
         <f t="shared" si="0"/>
-        <v>45403</v>
+        <v>45410</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>7664.5248622894196</v>
+        <v>7696.5052185058503</v>
       </c>
       <c r="B235" s="11">
         <f t="shared" si="0"/>
-        <v>45410</v>
+        <v>45417</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>7696.5052185058503</v>
+        <v>7725.44969940185</v>
       </c>
       <c r="B236" s="11">
         <f t="shared" si="0"/>
-        <v>45417</v>
+        <v>45424</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>7725.44969940185</v>
+        <v>7700.1880340576099</v>
       </c>
       <c r="B237" s="11">
         <f t="shared" si="0"/>
-        <v>45424</v>
+        <v>45431</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>7700.1880340576099</v>
+        <v>7712.6906585693296</v>
       </c>
       <c r="B238" s="11">
         <f t="shared" si="0"/>
-        <v>45431</v>
+        <v>45438</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>7712.6906585693296</v>
+        <v>7670.5366859435999</v>
       </c>
       <c r="B239" s="11">
         <f t="shared" si="0"/>
-        <v>45438</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>7670.5366859435999</v>
+        <v>7657.6979722976603</v>
       </c>
       <c r="B240" s="11">
         <f t="shared" si="0"/>
-        <v>45445</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>7657.6979722976603</v>
+        <v>7647.6022300720197</v>
       </c>
       <c r="B241" s="11">
         <f t="shared" si="0"/>
-        <v>45452</v>
+        <v>45459</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>7647.6022300720197</v>
+        <v>7590.1464233398401</v>
       </c>
       <c r="B242" s="11">
         <f t="shared" si="0"/>
-        <v>45459</v>
+        <v>45466</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>7590.1464233398401</v>
+        <v>7526.3598098754801</v>
       </c>
       <c r="B243" s="11">
         <f t="shared" si="0"/>
-        <v>45466</v>
+        <v>45473</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>7526.3598098754801</v>
+        <v>7522.1152725219699</v>
       </c>
       <c r="B244" s="11">
         <f t="shared" si="0"/>
-        <v>45473</v>
+        <v>45480</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>7522.1152725219699</v>
+        <v>7483.8923950195303</v>
       </c>
       <c r="B245" s="11">
-        <f t="shared" si="0"/>
-        <v>45480</v>
+        <f>B246-7</f>
+        <v>45487</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246">
-        <v>7483.8923950195303</v>
+      <c r="A246" t="s">
+        <v>73</v>
       </c>
       <c r="B246" s="11">
-        <f>B247-7</f>
-        <v>45487</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
-        <v>79</v>
-      </c>
-      <c r="B247" s="11">
-        <f>B264-7</f>
+        <f>B263-7</f>
         <v>45494</v>
       </c>
     </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>74</v>
+      </c>
+      <c r="B248" s="11">
+        <f t="shared" ref="B248" si="1">B249-7</f>
+        <v>45396</v>
+      </c>
+    </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>80</v>
+      <c r="A249">
+        <v>8016.0292243957501</v>
       </c>
       <c r="B249" s="11">
-        <f t="shared" ref="B249" si="1">B250-7</f>
-        <v>45396</v>
+        <f>B269-7</f>
+        <v>45403</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>8016.0292243957501</v>
+        <v>8012.2989072799601</v>
       </c>
       <c r="B250" s="11">
-        <f>B270-7</f>
-        <v>45403</v>
+        <f t="shared" ref="B250" si="2">B251-7</f>
+        <v>45410</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>8012.2989072799601</v>
+        <v>7969.8481664657502</v>
       </c>
       <c r="B251" s="11">
-        <f t="shared" ref="B251" si="2">B252-7</f>
-        <v>45410</v>
+        <f>B271-7</f>
+        <v>45417</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>7969.8481664657502</v>
+        <v>8001.9232168197595</v>
       </c>
       <c r="B252" s="11">
-        <f>B272-7</f>
-        <v>45417</v>
+        <f t="shared" ref="B252" si="3">B253-7</f>
+        <v>45424</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>8001.9232168197595</v>
+        <v>8030.2305479049601</v>
       </c>
       <c r="B253" s="11">
-        <f t="shared" ref="B253" si="3">B254-7</f>
-        <v>45424</v>
+        <f>B273-7</f>
+        <v>45431</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>8030.2305479049601</v>
+        <v>8013.7738904953003</v>
       </c>
       <c r="B254" s="11">
-        <f>B274-7</f>
-        <v>45431</v>
+        <f t="shared" ref="B254" si="4">B255-7</f>
+        <v>45438</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>8013.7738904953003</v>
+        <v>8026.3434495925903</v>
       </c>
       <c r="B255" s="11">
-        <f t="shared" ref="B255" si="4">B256-7</f>
-        <v>45438</v>
+        <f>B275-7</f>
+        <v>45445</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>8026.3434495925903</v>
+        <v>7978.6587648391696</v>
       </c>
       <c r="B256" s="11">
-        <f>B276-7</f>
-        <v>45445</v>
+        <f t="shared" ref="B256" si="5">B257-7</f>
+        <v>45452</v>
       </c>
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>7978.6587648391696</v>
+        <v>7970.5312814712497</v>
       </c>
       <c r="B257" s="11">
-        <f t="shared" ref="B257" si="5">B258-7</f>
-        <v>45452</v>
+        <f>B277-7</f>
+        <v>45459</v>
       </c>
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>7970.5312814712497</v>
+        <v>7957.0910444259598</v>
       </c>
       <c r="B258" s="11">
-        <f>B278-7</f>
-        <v>45459</v>
+        <f t="shared" ref="B258" si="6">B259-7</f>
+        <v>45466</v>
       </c>
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>7957.0910444259598</v>
+        <v>7909.0340223312296</v>
       </c>
       <c r="B259" s="11">
-        <f t="shared" ref="B259" si="6">B260-7</f>
-        <v>45466</v>
+        <f>B279-7</f>
+        <v>45473</v>
       </c>
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>7909.0340223312296</v>
+        <v>7834.8227033615103</v>
       </c>
       <c r="B260" s="11">
-        <f>B280-7</f>
-        <v>45473</v>
+        <f t="shared" ref="B260" si="7">B261-7</f>
+        <v>45480</v>
       </c>
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>7834.8227033615103</v>
+        <v>7830.85732364654</v>
       </c>
       <c r="B261" s="11">
-        <f t="shared" ref="B261" si="7">B262-7</f>
-        <v>45480</v>
+        <f>B281-7</f>
+        <v>45487</v>
       </c>
     </row>
     <row r="262" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>7830.85732364654</v>
+        <v>7791.8908967971802</v>
       </c>
       <c r="B262" s="11">
-        <f>B282-7</f>
-        <v>45487</v>
+        <f>B263-7</f>
+        <v>45494</v>
       </c>
     </row>
     <row r="263" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A263">
-        <v>7791.8908967971802</v>
+      <c r="A263" t="s">
+        <v>75</v>
       </c>
       <c r="B263" s="11">
-        <f>B264-7</f>
-        <v>45494</v>
+        <f>B283-7</f>
+        <v>45501</v>
       </c>
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>81</v>
-      </c>
-      <c r="B264" s="11">
-        <f>B284-7</f>
-        <v>45501</v>
-      </c>
+      <c r="B264" s="11"/>
     </row>
     <row r="265" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B265" s="11"/>
     </row>
     <row r="266" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B266" s="11"/>
+      <c r="A266" s="17"/>
+      <c r="B266" s="15"/>
+      <c r="C266" s="15"/>
+      <c r="D266" s="15"/>
+      <c r="E266" s="15"/>
+      <c r="F266" s="15"/>
+      <c r="G266" s="15"/>
+      <c r="H266" s="15"/>
+      <c r="I266" s="15"/>
+      <c r="J266" s="15"/>
+      <c r="K266" s="15"/>
+      <c r="L266" s="15"/>
+      <c r="M266" s="15"/>
+      <c r="N266" s="15"/>
+      <c r="O266" s="15"/>
+      <c r="P266" s="15"/>
+      <c r="Q266" s="15"/>
     </row>
     <row r="267" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A267" s="17"/>
-      <c r="B267" s="15"/>
-      <c r="C267" s="15"/>
-      <c r="D267" s="15"/>
-      <c r="E267" s="15"/>
-      <c r="F267" s="15"/>
-      <c r="G267" s="15"/>
-      <c r="H267" s="15"/>
-      <c r="I267" s="15"/>
-      <c r="J267" s="15"/>
-      <c r="K267" s="15"/>
-      <c r="L267" s="15"/>
-      <c r="M267" s="15"/>
-      <c r="N267" s="15"/>
-      <c r="O267" s="15"/>
-      <c r="P267" s="15"/>
-      <c r="Q267" s="15"/>
+      <c r="B267" s="11"/>
+      <c r="C267" t="s">
+        <v>0</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1</v>
+      </c>
+      <c r="E267" t="s">
+        <v>2</v>
+      </c>
+      <c r="F267" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="268" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A268" s="17"/>
-      <c r="B268" s="11"/>
-      <c r="C268" t="s">
-        <v>0</v>
-      </c>
-      <c r="D268" t="s">
-        <v>1</v>
-      </c>
-      <c r="E268" t="s">
-        <v>2</v>
-      </c>
-      <c r="F268" t="s">
-        <v>3</v>
+      <c r="B268" s="11">
+        <v>45403</v>
+      </c>
+      <c r="C268" s="2">
+        <v>7924</v>
+      </c>
+      <c r="D268">
+        <v>8242.91</v>
+      </c>
+      <c r="E268">
+        <f t="shared" ref="E268:E271" si="8">D268-C268</f>
+        <v>318.90999999999985</v>
+      </c>
+      <c r="F268" s="1">
+        <f t="shared" ref="F268:F271" si="9">(D268-C268)/C268</f>
+        <v>4.0246087834427041E-2</v>
       </c>
     </row>
     <row r="269" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B269" s="11">
-        <v>45403</v>
+        <f t="shared" ref="B269:B282" si="10">B270-7</f>
+        <v>45410</v>
       </c>
       <c r="C269" s="2">
-        <v>7924</v>
-      </c>
-      <c r="D269">
-        <v>8242.91</v>
+        <v>7690</v>
+      </c>
+      <c r="D269" s="15">
+        <v>8236.5452427864002</v>
       </c>
       <c r="E269">
-        <f t="shared" ref="E269:E272" si="8">D269-C269</f>
-        <v>318.90999999999985</v>
+        <f t="shared" si="8"/>
+        <v>546.54524278640019</v>
       </c>
       <c r="F269" s="1">
-        <f t="shared" ref="F269:F272" si="9">(D269-C269)/C269</f>
-        <v>4.0246087834427041E-2</v>
+        <f t="shared" si="9"/>
+        <v>7.1072203223198988E-2</v>
       </c>
     </row>
     <row r="270" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B270" s="11">
-        <f t="shared" ref="B270:B283" si="10">B271-7</f>
-        <v>45410</v>
+        <f t="shared" si="10"/>
+        <v>45417</v>
       </c>
       <c r="C270" s="2">
-        <v>7690</v>
+        <v>7957</v>
       </c>
       <c r="D270" s="15">
-        <v>8236.5452427864002</v>
+        <v>8312.3333821296692</v>
       </c>
       <c r="E270">
         <f t="shared" si="8"/>
-        <v>546.54524278640019</v>
+        <v>355.33338212966919</v>
       </c>
       <c r="F270" s="1">
         <f t="shared" si="9"/>
-        <v>7.1072203223198988E-2</v>
+        <v>4.4656702542373909E-2</v>
       </c>
     </row>
     <row r="271" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B271" s="11">
         <f t="shared" si="10"/>
-        <v>45417</v>
+        <v>45424</v>
       </c>
       <c r="C271" s="2">
-        <v>7957</v>
+        <v>7298</v>
       </c>
       <c r="D271" s="15">
-        <v>8312.3333821296692</v>
+        <v>8284.1900525093006</v>
       </c>
       <c r="E271">
         <f t="shared" si="8"/>
-        <v>355.33338212966919</v>
+        <v>986.19005250930059</v>
       </c>
       <c r="F271" s="1">
         <f t="shared" si="9"/>
-        <v>4.4656702542373909E-2</v>
+        <v>0.13513155008348871</v>
       </c>
     </row>
     <row r="272" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B272" s="11">
         <f t="shared" si="10"/>
-        <v>45424</v>
+        <v>45431</v>
       </c>
       <c r="C272" s="2">
-        <v>7298</v>
+        <v>7101</v>
       </c>
       <c r="D272" s="15">
-        <v>8284.1900525093006</v>
+        <v>8280.0863175392096</v>
       </c>
       <c r="E272">
-        <f t="shared" si="8"/>
-        <v>986.19005250930059</v>
+        <f>D272-C272</f>
+        <v>1179.0863175392096</v>
       </c>
       <c r="F272" s="1">
-        <f t="shared" si="9"/>
-        <v>0.13513155008348871</v>
+        <f>(D272-C272)/C272</f>
+        <v>0.16604510879301643</v>
       </c>
     </row>
     <row r="273" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B273" s="11">
         <f t="shared" si="10"/>
-        <v>45431</v>
+        <v>45438</v>
       </c>
       <c r="C273" s="2">
-        <v>7101</v>
+        <v>7071</v>
       </c>
       <c r="D273" s="15">
-        <v>8280.0863175392096</v>
+        <v>8284.2097954750006</v>
       </c>
       <c r="E273">
-        <f>D273-C273</f>
-        <v>1179.0863175392096</v>
+        <f t="shared" ref="E273:E283" si="11">D273-C273</f>
+        <v>1213.2097954750006</v>
       </c>
       <c r="F273" s="1">
-        <f>(D273-C273)/C273</f>
-        <v>0.16604510879301643</v>
+        <f t="shared" ref="F273:F283" si="12">(D273-C273)/C273</f>
+        <v>0.17157542009263196</v>
       </c>
     </row>
     <row r="274" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B274" s="11">
         <f t="shared" si="10"/>
-        <v>45438</v>
+        <v>45445</v>
       </c>
       <c r="C274" s="2">
-        <v>7071</v>
+        <v>6884</v>
       </c>
       <c r="D274" s="15">
-        <v>8284.2097954750006</v>
+        <v>8330.3097138404792</v>
       </c>
       <c r="E274">
-        <f t="shared" ref="E274:E284" si="11">D274-C274</f>
-        <v>1213.2097954750006</v>
+        <f t="shared" si="11"/>
+        <v>1446.3097138404792</v>
       </c>
       <c r="F274" s="1">
-        <f t="shared" ref="F274:F284" si="12">(D274-C274)/C274</f>
-        <v>0.17157542009263196</v>
+        <f t="shared" si="12"/>
+        <v>0.21009728556660071</v>
       </c>
     </row>
     <row r="275" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B275" s="11">
         <f t="shared" si="10"/>
-        <v>45445</v>
+        <v>45452</v>
       </c>
       <c r="C275" s="2">
-        <v>6884</v>
+        <v>7881</v>
       </c>
       <c r="D275" s="15">
-        <v>8330.3097138404792</v>
+        <v>8299.1327862739508</v>
       </c>
       <c r="E275">
         <f t="shared" si="11"/>
-        <v>1446.3097138404792</v>
+        <v>418.13278627395084</v>
       </c>
       <c r="F275" s="1">
         <f t="shared" si="12"/>
-        <v>0.21009728556660071</v>
+        <v>5.3055803359212138E-2</v>
       </c>
     </row>
     <row r="276" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B276" s="11">
         <f t="shared" si="10"/>
-        <v>45452</v>
+        <v>45459</v>
       </c>
       <c r="C276" s="2">
-        <v>7881</v>
+        <v>7484</v>
       </c>
       <c r="D276" s="15">
-        <v>8299.1327862739508</v>
+        <v>8188.1326947212201</v>
       </c>
       <c r="E276">
         <f t="shared" si="11"/>
-        <v>418.13278627395084</v>
+        <v>704.1326947212201</v>
       </c>
       <c r="F276" s="1">
         <f t="shared" si="12"/>
-        <v>5.3055803359212138E-2</v>
+        <v>9.4085074120954043E-2</v>
       </c>
     </row>
     <row r="277" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B277" s="11">
         <f t="shared" si="10"/>
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="C277" s="2">
-        <v>7484</v>
+        <v>7472</v>
       </c>
       <c r="D277" s="15">
-        <v>8188.1326947212201</v>
+        <v>8229.74454545974</v>
       </c>
       <c r="E277">
         <f t="shared" si="11"/>
-        <v>704.1326947212201</v>
+        <v>757.74454545974004</v>
       </c>
       <c r="F277" s="1">
         <f t="shared" si="12"/>
-        <v>9.4085074120954043E-2</v>
+        <v>0.10141120790414079</v>
       </c>
     </row>
     <row r="278" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B278" s="11">
         <f t="shared" si="10"/>
-        <v>45466</v>
+        <v>45473</v>
       </c>
       <c r="C278" s="2">
-        <v>7472</v>
+        <v>7669</v>
       </c>
       <c r="D278" s="15">
-        <v>8229.74454545974</v>
+        <v>8175.10783433914</v>
       </c>
       <c r="E278">
         <f t="shared" si="11"/>
-        <v>757.74454545974004</v>
+        <v>506.10783433914003</v>
       </c>
       <c r="F278" s="1">
         <f t="shared" si="12"/>
-        <v>0.10141120790414079</v>
+        <v>6.5993980224167428E-2</v>
       </c>
     </row>
     <row r="279" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B279" s="11">
         <f t="shared" si="10"/>
-        <v>45473</v>
+        <v>45480</v>
       </c>
       <c r="C279" s="2">
-        <v>7669</v>
+        <v>7978</v>
       </c>
       <c r="D279" s="15">
-        <v>8175.10783433914</v>
+        <v>8237.9295582771301</v>
       </c>
       <c r="E279">
         <f t="shared" si="11"/>
-        <v>506.10783433914003</v>
+        <v>259.92955827713013</v>
       </c>
       <c r="F279" s="1">
         <f t="shared" si="12"/>
-        <v>6.5993980224167428E-2</v>
+        <v>3.2580791962538248E-2</v>
       </c>
     </row>
     <row r="280" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B280" s="11">
         <f t="shared" si="10"/>
-        <v>45480</v>
+        <v>45487</v>
       </c>
       <c r="C280" s="2">
-        <v>7978</v>
+        <v>7683</v>
       </c>
       <c r="D280" s="15">
-        <v>8237.9295582771301</v>
+        <v>8120.2516789436304</v>
       </c>
       <c r="E280">
         <f t="shared" si="11"/>
-        <v>259.92955827713013</v>
+        <v>437.2516789436304</v>
       </c>
       <c r="F280" s="1">
         <f t="shared" si="12"/>
-        <v>3.2580791962538248E-2</v>
+        <v>5.6911581276015928E-2</v>
       </c>
     </row>
     <row r="281" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B281" s="11">
         <f t="shared" si="10"/>
-        <v>45487</v>
+        <v>45494</v>
       </c>
       <c r="C281" s="2">
-        <v>7683</v>
+        <v>7618</v>
       </c>
       <c r="D281" s="15">
-        <v>8120.2516789436304</v>
+        <v>8069.1623082160904</v>
       </c>
       <c r="E281">
         <f t="shared" si="11"/>
-        <v>437.2516789436304</v>
+        <v>451.16230821609042</v>
       </c>
       <c r="F281" s="1">
         <f t="shared" si="12"/>
-        <v>5.6911581276015928E-2</v>
+        <v>5.9223196142831509E-2</v>
       </c>
     </row>
     <row r="282" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B282" s="11">
         <f t="shared" si="10"/>
-        <v>45494</v>
+        <v>45501</v>
       </c>
       <c r="C282" s="2">
-        <v>7618</v>
+        <v>7508</v>
       </c>
       <c r="D282" s="15">
-        <v>8069.1623082160904</v>
+        <v>8017.76997804641</v>
       </c>
       <c r="E282">
         <f t="shared" si="11"/>
-        <v>451.16230821609042</v>
+        <v>509.76997804640996</v>
       </c>
       <c r="F282" s="1">
         <f t="shared" si="12"/>
-        <v>5.9223196142831509E-2</v>
+        <v>6.7896907038680065E-2</v>
       </c>
     </row>
     <row r="283" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B283" s="11">
-        <f t="shared" si="10"/>
-        <v>45501</v>
+        <v>45508</v>
       </c>
       <c r="C283" s="2">
-        <v>7508</v>
+        <v>7870</v>
       </c>
       <c r="D283" s="15">
-        <v>8017.76997804641</v>
+        <v>8048.89493989944</v>
       </c>
       <c r="E283">
         <f t="shared" si="11"/>
-        <v>509.76997804640996</v>
+        <v>178.89493989944003</v>
       </c>
       <c r="F283" s="1">
         <f t="shared" si="12"/>
-        <v>6.7896907038680065E-2</v>
+        <v>2.2731250304884376E-2</v>
       </c>
     </row>
     <row r="284" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B284" s="11">
-        <v>45508</v>
-      </c>
-      <c r="C284" s="2">
-        <v>7870</v>
-      </c>
-      <c r="D284" s="15">
-        <v>8048.89493989944</v>
-      </c>
       <c r="E284">
-        <f t="shared" si="11"/>
-        <v>178.89493989944003</v>
-      </c>
-      <c r="F284" s="1">
-        <f t="shared" si="12"/>
+        <f>SUM(E268:E283)</f>
+        <v>10268.710828456813</v>
+      </c>
+      <c r="F284" s="7">
+        <f>MAX(F268:F283)</f>
+        <v>0.21009728556660071</v>
+      </c>
+    </row>
+    <row r="285" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F285" s="7">
+        <f>MIN(F268:F284)</f>
         <v>2.2731250304884376E-2</v>
       </c>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E285">
-        <f>SUM(E269:E284)</f>
-        <v>10268.710828456813</v>
-      </c>
-      <c r="F285" s="7">
-        <f>MAX(F269:F284)</f>
-        <v>0.21009728556660071</v>
-      </c>
-    </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F286" s="7">
-        <f>MIN(F269:F285)</f>
-        <v>2.2731250304884376E-2</v>
-      </c>
-    </row>
-    <row r="287" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="286" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="287" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B287" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C287" s="8">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
     <row r="288" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B288" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C288" s="8">
-        <v>8.6999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="289" spans="2:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="B289" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C289" s="9">
+      <c r="B288" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C288" s="9">
         <v>0.21</v>
       </c>
     </row>
-    <row r="290" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B290" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C290" s="10">
+    <row r="289" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B289" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289" s="10">
         <v>2.3E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337E289F-EDED-4603-B618-AEB4A9AAD7DA}">
-  <dimension ref="A4:V35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U4" t="s">
-        <v>34</v>
-      </c>
-      <c r="V4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
-        <v>-402.82678099999998</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="14">
-        <v>-14.997400000000001</v>
-      </c>
-      <c r="C12" s="3">
-        <v>-200</v>
-      </c>
-      <c r="D12" s="3">
-        <v>7858</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="3"/>
-      <c r="D13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="14">
-        <v>-94.129000000000005</v>
-      </c>
-      <c r="C14" s="3">
-        <v>66</v>
-      </c>
-      <c r="D14" s="16">
-        <v>7924</v>
-      </c>
-      <c r="E14" s="3">
-        <f>D12+B14</f>
-        <v>7763.8710000000001</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ref="F14:F29" si="0">E14-D14</f>
-        <v>-160.12899999999991</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" ref="G14:G29" si="1">(E14-D14)/D14</f>
-        <v>-2.0208101968702662E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
-        <v>-473.72083099999998</v>
-      </c>
-      <c r="B15" s="14">
-        <v>-473.72</v>
-      </c>
-      <c r="C15" s="3">
-        <v>-234</v>
-      </c>
-      <c r="D15" s="16">
-        <v>7690</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" ref="E15:E29" si="2">D14+B15</f>
-        <v>7450.28</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>-239.72000000000025</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="1"/>
-        <v>-3.1172951885565701E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="14">
-        <v>154.22200000000001</v>
-      </c>
-      <c r="C16" s="3">
-        <v>267</v>
-      </c>
-      <c r="D16" s="16">
-        <v>7957</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" si="2"/>
-        <v>7844.2219999999998</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>-112.77800000000025</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="1"/>
-        <v>-1.4173432198064629E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
-        <v>-511.53955100000002</v>
-      </c>
-      <c r="B17" s="14">
-        <v>-511.54</v>
-      </c>
-      <c r="C17" s="3">
-        <v>-659</v>
-      </c>
-      <c r="D17" s="16">
-        <v>7298</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="2"/>
-        <v>7445.46</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>147.46000000000004</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="1"/>
-        <v>2.0205535763222805E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="14">
-        <v>507.49299999999999</v>
-      </c>
-      <c r="C18" s="3">
-        <v>-197</v>
-      </c>
-      <c r="D18" s="16">
-        <v>7101</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="2"/>
-        <v>7805.4930000000004</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>704.49300000000039</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="1"/>
-        <v>9.921039290240817E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="14">
-        <v>718.18119999999999</v>
-      </c>
-      <c r="C19" s="3">
-        <v>-30</v>
-      </c>
-      <c r="D19" s="16">
-        <v>7071</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" si="2"/>
-        <v>7819.1812</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>748.18119999999999</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="1"/>
-        <v>0.10580981473624664</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
-        <v>5.5316296100000004</v>
-      </c>
-      <c r="B20" s="14">
-        <v>5.53</v>
-      </c>
-      <c r="C20" s="3">
-        <v>-187</v>
-      </c>
-      <c r="D20" s="16">
-        <v>6884</v>
-      </c>
-      <c r="E20" s="3">
-        <f t="shared" si="2"/>
-        <v>7076.53</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>192.52999999999975</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="1"/>
-        <v>2.7967751307379395E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="14">
-        <v>273.48</v>
-      </c>
-      <c r="C21" s="3">
-        <v>997</v>
-      </c>
-      <c r="D21" s="16">
-        <v>7881</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" si="2"/>
-        <v>7157.48</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>-723.52000000000044</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="1"/>
-        <v>-9.1805608425326785E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="14">
-        <v>35.04</v>
-      </c>
-      <c r="C22" s="3">
-        <v>-397</v>
-      </c>
-      <c r="D22" s="16">
-        <v>7484</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" si="2"/>
-        <v>7916.04</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>432.03999999999996</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="1"/>
-        <v>5.7728487439871724E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
-        <v>-175.928381</v>
-      </c>
-      <c r="B23" s="14">
-        <v>-175.93</v>
-      </c>
-      <c r="C23" s="3">
-        <v>-12</v>
-      </c>
-      <c r="D23" s="16">
-        <v>7472</v>
-      </c>
-      <c r="E23" s="3">
-        <f t="shared" si="2"/>
-        <v>7308.07</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>-163.93000000000029</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="1"/>
-        <v>-2.1939239828693828E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="14">
-        <v>-426.05743100000001</v>
-      </c>
-      <c r="B24" s="14">
-        <v>-426.06</v>
-      </c>
-      <c r="C24" s="3">
-        <v>197</v>
-      </c>
-      <c r="D24" s="16">
-        <v>7669</v>
-      </c>
-      <c r="E24" s="3">
-        <f t="shared" si="2"/>
-        <v>7045.94</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>-623.0600000000004</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="1"/>
-        <v>-8.1243969226757126E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="14">
-        <v>-112.62002099999999</v>
-      </c>
-      <c r="B25" s="14">
-        <v>-112.62</v>
-      </c>
-      <c r="C25" s="3">
-        <v>309</v>
-      </c>
-      <c r="D25" s="16">
-        <v>7978</v>
-      </c>
-      <c r="E25" s="3">
-        <f t="shared" si="2"/>
-        <v>7556.38</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>-421.61999999999989</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="1"/>
-        <v>-5.2847831536725981E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="14">
-        <v>-376.60785099999998</v>
-      </c>
-      <c r="B26" s="14">
-        <v>-376.61</v>
-      </c>
-      <c r="C26" s="3">
-        <v>-295</v>
-      </c>
-      <c r="D26" s="16">
-        <v>7683</v>
-      </c>
-      <c r="E26" s="3">
-        <f t="shared" si="2"/>
-        <v>7601.39</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>-81.609999999999673</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="1"/>
-        <v>-1.0622152804893878E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="14">
-        <v>-460.78687100000002</v>
-      </c>
-      <c r="B27" s="14">
-        <v>-460.79</v>
-      </c>
-      <c r="C27" s="3">
-        <v>-65</v>
-      </c>
-      <c r="D27" s="16">
-        <v>7618</v>
-      </c>
-      <c r="E27" s="3">
-        <f t="shared" si="2"/>
-        <v>7222.21</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>-395.78999999999996</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="1"/>
-        <v>-5.1954581254922548E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="14">
-        <v>-353.90735100000001</v>
-      </c>
-      <c r="B28" s="14">
-        <v>-353.91</v>
-      </c>
-      <c r="C28" s="3">
-        <v>-110</v>
-      </c>
-      <c r="D28" s="16">
-        <v>7508</v>
-      </c>
-      <c r="E28" s="3">
-        <f t="shared" si="2"/>
-        <v>7264.09</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>-243.90999999999985</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="1"/>
-        <v>-3.2486680873734665E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="14">
-        <v>413.49099999999999</v>
-      </c>
-      <c r="C29" s="3">
-        <v>362</v>
-      </c>
-      <c r="D29" s="16">
-        <v>7870</v>
-      </c>
-      <c r="E29" s="3">
-        <f t="shared" si="2"/>
-        <v>7921.491</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>51.490999999999985</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="1"/>
-        <v>6.5426937738246489E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="F30">
-        <f>SUM(F14:F29)</f>
-        <v>-889.8718000000008</v>
-      </c>
-      <c r="G30" s="7">
-        <f>MAX(G14:G29)</f>
-        <v>0.10580981473624664</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G31" s="7">
-        <f>MIN(G14:G30)</f>
-        <v>-9.1805608425326785E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="6:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="F33" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G33" s="8">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="F34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="9">
-        <v>0.106</v>
-      </c>
-    </row>
-    <row r="35" spans="6:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="10">
-        <v>-9.1999999999999998E-2</v>
       </c>
     </row>
   </sheetData>
